--- a/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR18_1_RB.xlsx
+++ b/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR18_1_RB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtmc-my.sharepoint.com/personal/robertas_butylkinas_stud_techin_lt/Documents/Ziemos_kodas/QA_reports/bug_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4BE23E3-9F6C-4425-B777-FFE8760BDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A4BE23E3-9F6C-4425-B777-FFE8760BDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5AB9A9-AE49-47B2-8CE0-B8276C708734}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZK_Bug_Report" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Field</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Home Page/„app“ section</t>
-  </si>
-  <si>
-    <t>Mid</t>
   </si>
   <si>
     <t>Robertas Butylkinas</t>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>"app" description is too close to "finances" section icons</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,23 +642,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -698,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +727,9 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>45262</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
